--- a/任务设计-脑暴.xlsx
+++ b/任务设计-脑暴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidDevelop\android_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DABF8B1-5C4D-4B6D-8568-D1579196B5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC55EF7-5066-4A60-A059-360078B41B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -183,9 +183,6 @@
     <t>中 - 火车票列表页面</t>
   </si>
   <si>
-    <t>进入 “火车票” 页面，选出发地 “长沙”、目的地 “天津”，选择日期1月18日，选择学生票，得到车次列表</t>
-  </si>
-  <si>
     <t>进入 “机票” 页面，查10月21日从北京飞广州的机票，统计下最便宜的 3 趟航班的平均价格。</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>中 - 酒店列表页面、房型页面、酒店预订页面</t>
   </si>
   <si>
-    <t>进入 “机票” 页面，选出发地 “武汉”、目的地 “深圳”，选择日期11月10号，舱型默认，得到航班列表后，预订第一架航班</t>
-  </si>
-  <si>
     <t>中 - 航班列表页面、航班预订页面</t>
   </si>
   <si>
@@ -210,22 +204,10 @@
     <t>选上海的酒店，入住日期选10月21日，退房10月25日，客房数和入住人数默认，得到酒店列表后，选择价格最低的酒店，然后选择最便宜的房型预订</t>
   </si>
   <si>
-    <t>进入 “火车票” 页面，选出发地 “北京”、目的地 “上海”，选择日期10月20日，得到车次列表后，预订下午3点到下午4点的任意一班车次</t>
-  </si>
-  <si>
     <t>先订北京飞上海的机票（10月20日，经济舱），再订上海的酒店（入住10月20日，退房10月21日），最后订上海回北京的火车票（10月21日）</t>
   </si>
   <si>
-    <t>订 10 月 20 日从杭州到北京的最快火车票（5 小时内达），住北京中关村亚朵酒店两晚（10.20 - 10.22），再订 10.22 北京回杭州的最晚高铁，计算所有费用后判断 2000 元够不够。</t>
-  </si>
-  <si>
     <t>订 5 张 10 月 20 日深圳到北京的火车票（要求 5 小时内到达）</t>
-  </si>
-  <si>
-    <t>订 5 张 10 月 20 日广州到北京的最早火车票，再订北京 3 家不同的酒店</t>
-  </si>
-  <si>
-    <t>订 10 月 15 日北京飞上海的 6 张经济舱机票</t>
   </si>
   <si>
     <t>进入 “酒店” 页面，选择城市上海，得到酒店列表</t>
@@ -241,6 +223,34 @@
   </si>
   <si>
     <t>进入 “酒店” 页面，为我检索上海所有酒店中最低的价格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入 “机票” 页面，选出发地 “成都”、目的地 “深圳”，选择日期10月24号，舱型默认，得到航班列表后，预订第一架航班</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入 "火车票" 页面，选出发地 "杭州"、目的地 "深圳"，选择日期10月24日，选择学生票，得到车次列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入 “火车票” 页面，选出发地 “北京”、目的地 “上海”，选择日期10月20日，得到车次列表后，预订下午1点到下午3点的任意一班车次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订 10 月 20 日从杭州到北京的最快火车票（5 小时内达），住北京王府井希尔顿酒店两晚（10.20 - 10.22），再订 10.22 北京回杭州的高铁，计算所有费用后判断 2000 元够不够。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超长任务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订 5 张 10 月 20 日广州到北京的火车票，再订北京 3 家不同的酒店</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订 10 月 25 日北京飞上海的 6 张经济舱机票</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -890,8 +900,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>21</v>
@@ -1164,7 +1174,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -1274,7 +1284,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>42</v>
@@ -1289,7 +1299,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>36</v>
@@ -1304,7 +1314,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>36</v>
@@ -1319,7 +1329,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>39</v>
@@ -1334,7 +1344,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>42</v>
@@ -1349,10 +1359,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1364,10 +1374,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1379,10 +1389,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1394,10 +1404,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1409,10 +1419,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1424,7 +1434,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>7</v>
@@ -1439,10 +1449,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1454,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>7</v>
@@ -1469,7 +1479,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>7</v>
@@ -1484,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>7</v>
